--- a/python/openpyxl/copy-range/target-en.xlsx
+++ b/python/openpyxl/copy-range/target-en.xlsx
@@ -10,7 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Example" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Example'!$A$1:$L$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Example'!$A$1:$L$13</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
 </workbook>
@@ -751,10 +751,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:XFD33"/>
+  <dimension ref="A1:XFD23"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="0" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
+    <sheetView showFormulas="0" showGridLines="0" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="pageBreakPreview" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="21.42578125" defaultRowHeight="13.5" zeroHeight="0" outlineLevelRow="0"/>
@@ -766,7 +766,7 @@
     <col width="7.66" customWidth="1" style="37" min="6" max="6"/>
     <col width="16.84" customWidth="1" style="37" min="7" max="7"/>
     <col width="4.09" customWidth="1" style="37" min="8" max="8"/>
-    <col width="10.21" customWidth="1" style="37" min="9" max="9"/>
+    <col width="10.2" customWidth="1" style="37" min="9" max="9"/>
     <col width="13.8" customWidth="1" style="37" min="10" max="10"/>
     <col width="4.09" customWidth="1" style="37" min="11" max="11"/>
     <col width="4.09" customWidth="1" style="38" min="12" max="12"/>
@@ -1036,7 +1036,7 @@
       <c r="B9" s="63" t="n"/>
       <c r="C9" s="59" t="inlineStr">
         <is>
-          <t>Tanggal Rekam</t>
+          <t>Record Date</t>
         </is>
       </c>
       <c r="D9" s="60" t="inlineStr">
@@ -1072,7 +1072,7 @@
       <c r="B10" s="63" t="n"/>
       <c r="C10" s="59" t="inlineStr">
         <is>
-          <t>Record Date</t>
+          <t>Record User</t>
         </is>
       </c>
       <c r="D10" s="60" t="inlineStr">
@@ -1186,7 +1186,7 @@
       <c r="XFC13" s="37" t="n"/>
       <c r="XFD13" s="37" t="n"/>
     </row>
-    <row r="14" ht="18" customHeight="1" s="39">
+    <row r="14">
       <c r="B14" s="48" t="inlineStr">
         <is>
           <t>#</t>
@@ -1214,7 +1214,7 @@
       <c r="J14" s="50" t="n"/>
       <c r="K14" s="53" t="n"/>
     </row>
-    <row r="15" ht="18" customHeight="1" s="39">
+    <row r="15">
       <c r="B15" s="54" t="n">
         <v>1</v>
       </c>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="K15" s="58" t="n"/>
     </row>
-    <row r="16" ht="18" customHeight="1" s="39">
+    <row r="16">
       <c r="B16" s="54" t="n"/>
       <c r="C16" s="59" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="K16" s="58" t="n"/>
     </row>
-    <row r="17" ht="18" customHeight="1" s="39">
+    <row r="17">
       <c r="B17" s="63" t="n"/>
       <c r="C17" s="59" t="inlineStr">
         <is>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="K17" s="66" t="n"/>
     </row>
-    <row r="18" ht="18" customHeight="1" s="39">
+    <row r="18">
       <c r="B18" s="63" t="n"/>
       <c r="C18" s="59" t="inlineStr">
         <is>
@@ -1324,11 +1324,11 @@
       </c>
       <c r="K18" s="62" t="n"/>
     </row>
-    <row r="19" ht="18" customHeight="1" s="39">
+    <row r="19">
       <c r="B19" s="63" t="n"/>
       <c r="C19" s="59" t="inlineStr">
         <is>
-          <t>Tanggal Rekam</t>
+          <t>Record Date</t>
         </is>
       </c>
       <c r="D19" s="60" t="inlineStr">
@@ -1349,11 +1349,11 @@
       </c>
       <c r="K19" s="66" t="n"/>
     </row>
-    <row r="20" ht="18" customHeight="1" s="39">
+    <row r="20">
       <c r="B20" s="63" t="n"/>
       <c r="C20" s="59" t="inlineStr">
         <is>
-          <t>Record Date</t>
+          <t>Record User</t>
         </is>
       </c>
       <c r="D20" s="60" t="inlineStr">
@@ -1375,7 +1375,7 @@
       </c>
       <c r="K20" s="68" t="n"/>
     </row>
-    <row r="21" ht="18" customHeight="1" s="39">
+    <row r="21">
       <c r="B21" s="63" t="n"/>
       <c r="C21" s="59" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
       </c>
       <c r="K21" s="68" t="n"/>
     </row>
-    <row r="22" ht="18" customHeight="1" s="39">
+    <row r="22">
       <c r="B22" s="69" t="n"/>
       <c r="C22" s="70" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
       <c r="J22" s="72" t="n"/>
       <c r="K22" s="73" t="n"/>
     </row>
-    <row r="23" ht="11.25" customHeight="1" s="39">
+    <row r="23">
       <c r="B23" s="40" t="n"/>
       <c r="C23" s="40" t="n"/>
       <c r="D23" s="41" t="n"/>
@@ -1439,260 +1439,6 @@
       <c r="I23" s="40" t="n"/>
       <c r="J23" s="40" t="n"/>
       <c r="K23" s="40" t="n"/>
-    </row>
-    <row r="24" ht="18" customHeight="1" s="39">
-      <c r="B24" s="48" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="C24" s="49" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="D24" s="50" t="n"/>
-      <c r="E24" s="50" t="n"/>
-      <c r="F24" s="51" t="inlineStr">
-        <is>
-          <t>Taxpayer ID</t>
-        </is>
-      </c>
-      <c r="G24" s="50" t="n"/>
-      <c r="H24" s="50" t="n"/>
-      <c r="I24" s="52" t="inlineStr">
-        <is>
-          <t>Tax Inv ID</t>
-        </is>
-      </c>
-      <c r="J24" s="50" t="n"/>
-      <c r="K24" s="53" t="n"/>
-    </row>
-    <row r="25" ht="18" customHeight="1" s="39">
-      <c r="B25" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" s="55" t="inlineStr">
-        <is>
-          <t>The Office of Space Racoon Protection</t>
-        </is>
-      </c>
-      <c r="E25" s="46" t="n"/>
-      <c r="F25" s="56" t="inlineStr">
-        <is>
-          <t>03.114.215.4-271.000</t>
-        </is>
-      </c>
-      <c r="I25" s="57" t="inlineStr">
-        <is>
-          <t>021.004-21.31234568</t>
-        </is>
-      </c>
-      <c r="K25" s="58" t="n"/>
-    </row>
-    <row r="26" ht="18" customHeight="1" s="39">
-      <c r="B26" s="54" t="n"/>
-      <c r="C26" s="59" t="inlineStr">
-        <is>
-          <t>Tax Inv Date</t>
-        </is>
-      </c>
-      <c r="D26" s="60" t="inlineStr">
-        <is>
-          <t>Mon 16 May 2022</t>
-        </is>
-      </c>
-      <c r="F26" s="59" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="G26" s="56" t="n"/>
-      <c r="H26" s="61" t="n"/>
-      <c r="I26" s="62" t="inlineStr">
-        <is>
-          <t>Invoice: 2205/INV/015</t>
-        </is>
-      </c>
-      <c r="K26" s="58" t="n"/>
-    </row>
-    <row r="27" ht="18" customHeight="1" s="39">
-      <c r="B27" s="63" t="n"/>
-      <c r="C27" s="59" t="inlineStr">
-        <is>
-          <t>Approval Date</t>
-        </is>
-      </c>
-      <c r="D27" s="60" t="inlineStr">
-        <is>
-          <t>Mon 16 May 2022, 01:38:23 WIB</t>
-        </is>
-      </c>
-      <c r="F27" s="59" t="inlineStr">
-        <is>
-          <t>Period</t>
-        </is>
-      </c>
-      <c r="G27" s="64" t="n">
-        <v>5</v>
-      </c>
-      <c r="H27" s="59" t="n"/>
-      <c r="I27" s="59" t="inlineStr">
-        <is>
-          <t>Base Price</t>
-        </is>
-      </c>
-      <c r="J27" s="65" t="n">
-        <v>12000000</v>
-      </c>
-      <c r="K27" s="66" t="n"/>
-    </row>
-    <row r="28" ht="18" customHeight="1" s="39">
-      <c r="B28" s="63" t="n"/>
-      <c r="C28" s="59" t="inlineStr">
-        <is>
-          <t>Signatory User</t>
-        </is>
-      </c>
-      <c r="D28" s="60" t="inlineStr">
-        <is>
-          <t>Tax Admin</t>
-        </is>
-      </c>
-      <c r="F28" s="59" t="inlineStr">
-        <is>
-          <t>Year</t>
-        </is>
-      </c>
-      <c r="G28" s="64" t="n">
-        <v>2022</v>
-      </c>
-      <c r="H28" s="61" t="n"/>
-      <c r="I28" s="59" t="inlineStr">
-        <is>
-          <t>VAT</t>
-        </is>
-      </c>
-      <c r="J28" s="65" t="n">
-        <v>132000</v>
-      </c>
-      <c r="K28" s="62" t="n"/>
-    </row>
-    <row r="29" ht="18" customHeight="1" s="39">
-      <c r="B29" s="63" t="n"/>
-      <c r="C29" s="59" t="inlineStr">
-        <is>
-          <t>Tanggal Rekam</t>
-        </is>
-      </c>
-      <c r="D29" s="60" t="inlineStr">
-        <is>
-          <t>Mon 16 May 2022, 01:44:48 WIB</t>
-        </is>
-      </c>
-      <c r="F29" s="59" t="n"/>
-      <c r="G29" s="59" t="n"/>
-      <c r="H29" s="59" t="n"/>
-      <c r="I29" s="59" t="inlineStr">
-        <is>
-          <t>VAT Lux</t>
-        </is>
-      </c>
-      <c r="J29" s="65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" s="66" t="n"/>
-    </row>
-    <row r="30" ht="18" customHeight="1" s="39">
-      <c r="B30" s="63" t="n"/>
-      <c r="C30" s="59" t="inlineStr">
-        <is>
-          <t>Record Date</t>
-        </is>
-      </c>
-      <c r="D30" s="60" t="inlineStr">
-        <is>
-          <t>Tax Admin</t>
-        </is>
-      </c>
-      <c r="F30" s="59" t="inlineStr">
-        <is>
-          <t>Tax Inv Status</t>
-        </is>
-      </c>
-      <c r="G30" s="59" t="n"/>
-      <c r="H30" s="59" t="n"/>
-      <c r="I30" s="60" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="K30" s="68" t="n"/>
-    </row>
-    <row r="31" ht="18" customHeight="1" s="39">
-      <c r="B31" s="63" t="n"/>
-      <c r="C31" s="59" t="inlineStr">
-        <is>
-          <t>Update Date</t>
-        </is>
-      </c>
-      <c r="D31" s="60" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F31" s="59" t="inlineStr">
-        <is>
-          <t>Status Approval</t>
-        </is>
-      </c>
-      <c r="H31" s="40" t="n"/>
-      <c r="I31" s="60" t="inlineStr">
-        <is>
-          <t>Approval Succeed</t>
-        </is>
-      </c>
-      <c r="K31" s="68" t="n"/>
-    </row>
-    <row r="32" ht="18" customHeight="1" s="39">
-      <c r="B32" s="69" t="n"/>
-      <c r="C32" s="70" t="inlineStr">
-        <is>
-          <t>Update User</t>
-        </is>
-      </c>
-      <c r="D32" s="71" t="inlineStr">
-        <is>
-          <t>Tax Admin</t>
-        </is>
-      </c>
-      <c r="E32" s="72" t="n"/>
-      <c r="F32" s="70" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="G32" s="70" t="n"/>
-      <c r="H32" s="70" t="n"/>
-      <c r="I32" s="71" t="inlineStr">
-        <is>
-          <t>Tax Inv Upload Succeed</t>
-        </is>
-      </c>
-      <c r="J32" s="72" t="n"/>
-      <c r="K32" s="73" t="n"/>
-    </row>
-    <row r="33" ht="11.25" customHeight="1" s="39">
-      <c r="B33" s="40" t="n"/>
-      <c r="C33" s="40" t="n"/>
-      <c r="D33" s="41" t="n"/>
-      <c r="E33" s="41" t="n"/>
-      <c r="F33" s="40" t="n"/>
-      <c r="G33" s="40" t="n"/>
-      <c r="H33" s="40" t="n"/>
-      <c r="I33" s="40" t="n"/>
-      <c r="J33" s="40" t="n"/>
-      <c r="K33" s="40" t="n"/>
     </row>
     <row r="1048502" ht="12.75" customHeight="1" s="39"/>
     <row r="1048503" ht="12.75" customHeight="1" s="39"/>
@@ -1770,7 +1516,7 @@
     <row r="1048575" ht="12.8" customHeight="1" s="39"/>
     <row r="1048576" ht="12.8" customHeight="1" s="39"/>
   </sheetData>
-  <mergeCells count="55">
+  <mergeCells count="19">
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="F4:H4"/>
@@ -1790,42 +1536,6 @@
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="I12:J12"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="I32:J32"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.551388888888889" right="0.551388888888889" top="0.551388888888889" bottom="0.551388888888889" header="0.511811023622047" footer="0.511811023622047"/>
